--- a/output.xlsx
+++ b/output.xlsx
@@ -429,17 +429,17 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Similarity Percentage</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>Matched Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Phone</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Similarity Percentage</t>
         </is>
       </c>
     </row>
